--- a/results/1/1_AA_rewards.xlsx
+++ b/results/1/1_AA_rewards.xlsx
@@ -423,41 +423,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-205.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-205.69</v>
-      </c>
-      <c r="C3">
-        <v>-205.69</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-213.99</v>
+      </c>
+      <c r="C3">
+        <v>-213.99</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -492,41 +492,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-91.34999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-94.28</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-151.7</v>
-      </c>
-      <c r="C3">
-        <v>-177.68</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-169.16</v>
-      </c>
-      <c r="C4">
-        <v>-161.12</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-1.75</v>
+      </c>
+      <c r="C2">
+        <v>-27.42</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-11.87</v>
+      </c>
+      <c r="C3">
+        <v>-56.46</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4.95</v>
+      </c>
+      <c r="C4">
+        <v>-25.15</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -561,41 +561,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-47.93</v>
-      </c>
-      <c r="D2">
-        <v>-36.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-205.69</v>
-      </c>
-      <c r="C3">
-        <v>-58.91</v>
-      </c>
-      <c r="D3">
-        <v>-68.65000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-97.11</v>
-      </c>
-      <c r="D4">
-        <v>-112.49</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>13.23</v>
+      </c>
+      <c r="D2">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-213.99</v>
+      </c>
+      <c r="C3">
+        <v>0.88</v>
+      </c>
+      <c r="D3">
+        <v>-1.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>1.58</v>
+      </c>
+      <c r="D4">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -630,41 +630,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-150.06</v>
-      </c>
-      <c r="C2">
-        <v>-91.62</v>
-      </c>
-      <c r="D2">
-        <v>-80.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-104.7</v>
-      </c>
-      <c r="C3">
-        <v>-122.3</v>
-      </c>
-      <c r="D3">
-        <v>-87.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-117.19</v>
-      </c>
-      <c r="C4">
-        <v>-159.14</v>
-      </c>
-      <c r="D4">
-        <v>-124.02</v>
+        <v>-143.7</v>
+      </c>
+      <c r="C2">
+        <v>-18.17</v>
+      </c>
+      <c r="D2">
+        <v>-65.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-84.48</v>
+      </c>
+      <c r="C3">
+        <v>-91.04000000000001</v>
+      </c>
+      <c r="D3">
+        <v>-146.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10.68</v>
+      </c>
+      <c r="C4">
+        <v>-96.58</v>
+      </c>
+      <c r="D4">
+        <v>-40.9</v>
       </c>
     </row>
   </sheetData>
@@ -699,41 +699,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-59.63</v>
-      </c>
-      <c r="C2">
-        <v>-93.42</v>
-      </c>
-      <c r="D2">
-        <v>-58.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-109.45</v>
-      </c>
-      <c r="C3">
-        <v>-103.78</v>
-      </c>
-      <c r="D3">
-        <v>-119.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-100.98</v>
-      </c>
-      <c r="C4">
-        <v>-119.39</v>
-      </c>
-      <c r="D4">
-        <v>-201.34</v>
+        <v>-10.74</v>
+      </c>
+      <c r="C2">
+        <v>13.79</v>
+      </c>
+      <c r="D2">
+        <v>-7.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-2.38</v>
+      </c>
+      <c r="C3">
+        <v>-31.27</v>
+      </c>
+      <c r="D3">
+        <v>-8.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-31.42</v>
+      </c>
+      <c r="C4">
+        <v>-6.93</v>
+      </c>
+      <c r="D4">
+        <v>-13.58</v>
       </c>
     </row>
   </sheetData>
@@ -768,41 +768,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-174.38</v>
-      </c>
-      <c r="C2">
-        <v>-176.17</v>
-      </c>
-      <c r="D2">
-        <v>-158.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-66.94</v>
-      </c>
-      <c r="C3">
-        <v>-142.18</v>
-      </c>
-      <c r="D3">
-        <v>-144.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-103.51</v>
-      </c>
-      <c r="C4">
-        <v>-99.66</v>
-      </c>
-      <c r="D4">
-        <v>-106.41</v>
+        <v>12.37</v>
+      </c>
+      <c r="C2">
+        <v>-87.39</v>
+      </c>
+      <c r="D2">
+        <v>-72.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-61.61</v>
+      </c>
+      <c r="C3">
+        <v>-54.58</v>
+      </c>
+      <c r="D3">
+        <v>-33.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-27.62</v>
+      </c>
+      <c r="C4">
+        <v>-33.74</v>
+      </c>
+      <c r="D4">
+        <v>-66.81999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -837,41 +837,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-96.08</v>
-      </c>
-      <c r="C2">
-        <v>-118.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-111.04</v>
-      </c>
-      <c r="C3">
-        <v>-124.76</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-152.78</v>
-      </c>
-      <c r="C4">
-        <v>-120.53</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-18.55</v>
+      </c>
+      <c r="C2">
+        <v>-26.46</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10.78</v>
+      </c>
+      <c r="C3">
+        <v>-38.18</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-19.96</v>
+      </c>
+      <c r="C4">
+        <v>-15.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -906,41 +906,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-86</v>
-      </c>
-      <c r="D2">
-        <v>-144.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-205.69</v>
-      </c>
-      <c r="C3">
-        <v>-121.85</v>
-      </c>
-      <c r="D3">
-        <v>-66.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-116.06</v>
-      </c>
-      <c r="D4">
-        <v>-105.9</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>12.96</v>
+      </c>
+      <c r="D2">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-213.99</v>
+      </c>
+      <c r="C3">
+        <v>7.45</v>
+      </c>
+      <c r="D3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-1.48</v>
+      </c>
+      <c r="D4">
+        <v>-0.95</v>
       </c>
     </row>
   </sheetData>
@@ -975,41 +975,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-34.25</v>
-      </c>
-      <c r="C2">
-        <v>-128.58</v>
-      </c>
-      <c r="D2">
-        <v>-150.31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-144.48</v>
-      </c>
-      <c r="C3">
-        <v>-180.07</v>
-      </c>
-      <c r="D3">
-        <v>-130.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-101.17</v>
-      </c>
-      <c r="C4">
-        <v>-112.36</v>
-      </c>
-      <c r="D4">
-        <v>-91.2</v>
+        <v>-45.65</v>
+      </c>
+      <c r="C2">
+        <v>-56.06</v>
+      </c>
+      <c r="D2">
+        <v>-15.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12.73</v>
+      </c>
+      <c r="C3">
+        <v>-78.25</v>
+      </c>
+      <c r="D3">
+        <v>-44.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-37.3</v>
+      </c>
+      <c r="C4">
+        <v>-123.58</v>
+      </c>
+      <c r="D4">
+        <v>-39.75</v>
       </c>
     </row>
   </sheetData>
@@ -1044,41 +1044,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-141.12</v>
-      </c>
-      <c r="C2">
-        <v>-59.81</v>
-      </c>
-      <c r="D2">
-        <v>-147.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-128.64</v>
-      </c>
-      <c r="C3">
-        <v>-126.74</v>
-      </c>
-      <c r="D3">
-        <v>-96.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-110.73</v>
-      </c>
-      <c r="C4">
-        <v>-124.52</v>
-      </c>
-      <c r="D4">
-        <v>-100.14</v>
+        <v>-57.74</v>
+      </c>
+      <c r="C2">
+        <v>13.52</v>
+      </c>
+      <c r="D2">
+        <v>-23.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-17.41</v>
+      </c>
+      <c r="C3">
+        <v>-4.5</v>
+      </c>
+      <c r="D3">
+        <v>-10.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-16.1</v>
+      </c>
+      <c r="C4">
+        <v>3.32</v>
+      </c>
+      <c r="D4">
+        <v>-34.1</v>
       </c>
     </row>
   </sheetData>
@@ -1113,41 +1113,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-139.49</v>
-      </c>
-      <c r="C2">
-        <v>-145.24</v>
-      </c>
-      <c r="D2">
-        <v>-82.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-147.8</v>
-      </c>
-      <c r="C3">
-        <v>-70.61</v>
-      </c>
-      <c r="D3">
-        <v>-95.34999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-75.78</v>
-      </c>
-      <c r="C4">
-        <v>-96.66</v>
-      </c>
-      <c r="D4">
-        <v>-85.06999999999999</v>
+        <v>-98.09</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-8.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-50.14</v>
+      </c>
+      <c r="C3">
+        <v>-25.09</v>
+      </c>
+      <c r="D3">
+        <v>-32.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-58.06</v>
+      </c>
+      <c r="C4">
+        <v>-89.39</v>
+      </c>
+      <c r="D4">
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
@@ -1182,41 +1182,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-205.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-76.26000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-106.75</v>
-      </c>
-      <c r="D3">
-        <v>-101.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-58.64</v>
-      </c>
-      <c r="C4">
-        <v>-87.56</v>
-      </c>
-      <c r="D4">
-        <v>-126.26</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>14.11</v>
+      </c>
+      <c r="C3">
+        <v>10.7</v>
+      </c>
+      <c r="D3">
+        <v>8.210000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9.24</v>
+      </c>
+      <c r="C4">
+        <v>10.04</v>
+      </c>
+      <c r="D4">
+        <v>8.27</v>
       </c>
     </row>
   </sheetData>
@@ -1251,41 +1251,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-149.29</v>
-      </c>
-      <c r="C2">
-        <v>-102.07</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-87.67</v>
-      </c>
-      <c r="C3">
-        <v>-88.34</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-66.5</v>
-      </c>
-      <c r="C4">
-        <v>-77.58</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>14.35</v>
+      </c>
+      <c r="C2">
+        <v>-1.12</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-10.37</v>
+      </c>
+      <c r="C3">
+        <v>3.74</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4.97</v>
+      </c>
+      <c r="C4">
+        <v>-3.16</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1320,41 +1320,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-100.91</v>
-      </c>
-      <c r="D2">
-        <v>-95.62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-205.69</v>
-      </c>
-      <c r="C3">
-        <v>-121.59</v>
-      </c>
-      <c r="D3">
-        <v>-145.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>0.22</v>
+      </c>
+      <c r="D2">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-213.99</v>
+      </c>
+      <c r="C3">
+        <v>-7.98</v>
+      </c>
+      <c r="D3">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1389,41 +1389,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-104.99</v>
-      </c>
-      <c r="C2">
-        <v>-80.54000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-154.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-89.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-126.51</v>
-      </c>
-      <c r="D3">
-        <v>-157.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-10.88</v>
+      </c>
+      <c r="C2">
+        <v>11.83</v>
+      </c>
+      <c r="D2">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-0.33</v>
+      </c>
+      <c r="C3">
+        <v>1.52</v>
+      </c>
+      <c r="D3">
+        <v>-5.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1458,41 +1458,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-75.40000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-90.42</v>
-      </c>
-      <c r="D2">
-        <v>-74.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-88.66</v>
-      </c>
-      <c r="C3">
-        <v>-79.67</v>
-      </c>
-      <c r="D3">
-        <v>-112.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-20.35</v>
+      </c>
+      <c r="C2">
+        <v>12.77</v>
+      </c>
+      <c r="D2">
+        <v>-2.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-17.46</v>
+      </c>
+      <c r="C3">
+        <v>-2.43</v>
+      </c>
+      <c r="D3">
+        <v>-10.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1527,41 +1527,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-85.59999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-121.13</v>
-      </c>
-      <c r="D2">
-        <v>-74.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-77.22</v>
-      </c>
-      <c r="C3">
-        <v>-180.76</v>
-      </c>
-      <c r="D3">
-        <v>-81.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>13.05</v>
+      </c>
+      <c r="C2">
+        <v>-3.38</v>
+      </c>
+      <c r="D2">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6.9</v>
+      </c>
+      <c r="C3">
+        <v>0.82</v>
+      </c>
+      <c r="D3">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1596,41 +1596,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-75.53</v>
-      </c>
-      <c r="C2">
-        <v>-63.05</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-96.23</v>
-      </c>
-      <c r="C3">
-        <v>-77.61</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-205.69</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>7.15</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12.36</v>
+      </c>
+      <c r="C3">
+        <v>-1.19</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-213.99</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1665,41 +1665,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-205.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-91.3</v>
-      </c>
-      <c r="C3">
-        <v>-96.14</v>
-      </c>
-      <c r="D3">
-        <v>-109.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-81.5</v>
-      </c>
-      <c r="C4">
-        <v>-119.21</v>
-      </c>
-      <c r="D4">
-        <v>-156.21</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.53</v>
+      </c>
+      <c r="C3">
+        <v>-7.49</v>
+      </c>
+      <c r="D3">
+        <v>-24.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10.79</v>
+      </c>
+      <c r="C4">
+        <v>-8.59</v>
+      </c>
+      <c r="D4">
+        <v>-6.42</v>
       </c>
     </row>
   </sheetData>
@@ -1734,41 +1734,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-205.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-100.99</v>
-      </c>
-      <c r="C3">
-        <v>-205.69</v>
-      </c>
-      <c r="D3">
-        <v>-99.84999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-192.14</v>
-      </c>
-      <c r="C4">
-        <v>-137.58</v>
-      </c>
-      <c r="D4">
-        <v>-92.13</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-25.66</v>
+      </c>
+      <c r="C3">
+        <v>-7.8</v>
+      </c>
+      <c r="D3">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3.58</v>
+      </c>
+      <c r="C4">
+        <v>-1.5</v>
+      </c>
+      <c r="D4">
+        <v>-3.02</v>
       </c>
     </row>
   </sheetData>
@@ -1803,41 +1803,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-205.69</v>
-      </c>
-      <c r="D2">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-107.62</v>
-      </c>
-      <c r="C3">
-        <v>-136.42</v>
-      </c>
-      <c r="D3">
-        <v>-205.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-127</v>
-      </c>
-      <c r="C4">
-        <v>-142.46</v>
-      </c>
-      <c r="D4">
-        <v>-205.69</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>-213.99</v>
+      </c>
+      <c r="D2">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-15.49</v>
+      </c>
+      <c r="C3">
+        <v>-19.47</v>
+      </c>
+      <c r="D3">
+        <v>-213.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-23.49</v>
+      </c>
+      <c r="C4">
+        <v>-14.95</v>
+      </c>
+      <c r="D4">
+        <v>-213.99</v>
       </c>
     </row>
   </sheetData>
@@ -1872,41 +1872,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-205.69</v>
-      </c>
-      <c r="C2">
-        <v>-43.17</v>
-      </c>
-      <c r="D2">
-        <v>-40.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-205.69</v>
-      </c>
-      <c r="C3">
-        <v>-55.03</v>
-      </c>
-      <c r="D3">
-        <v>-139.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-205.69</v>
-      </c>
-      <c r="C4">
-        <v>-88.41</v>
-      </c>
-      <c r="D4">
-        <v>-132.47</v>
+        <v>-213.99</v>
+      </c>
+      <c r="C2">
+        <v>13.34</v>
+      </c>
+      <c r="D2">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-213.99</v>
+      </c>
+      <c r="C3">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D3">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-213.99</v>
+      </c>
+      <c r="C4">
+        <v>-6.97</v>
+      </c>
+      <c r="D4">
+        <v>-19.63</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1941,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-45.5</v>
-      </c>
-      <c r="C2">
-        <v>-61.59</v>
-      </c>
-      <c r="D2">
-        <v>-119.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-36.81</v>
-      </c>
-      <c r="C3">
-        <v>-82.62</v>
-      </c>
-      <c r="D3">
-        <v>-99.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-64.41</v>
-      </c>
-      <c r="C4">
-        <v>-152.22</v>
-      </c>
-      <c r="D4">
-        <v>-125.94</v>
+        <v>-4.12</v>
+      </c>
+      <c r="C2">
+        <v>-4.66</v>
+      </c>
+      <c r="D2">
+        <v>-30.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-29.23</v>
+      </c>
+      <c r="C3">
+        <v>-51.15</v>
+      </c>
+      <c r="D3">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-48.75</v>
+      </c>
+      <c r="C4">
+        <v>-64.42</v>
+      </c>
+      <c r="D4">
+        <v>-25.99</v>
       </c>
     </row>
   </sheetData>
@@ -2010,41 +2010,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-111.66</v>
-      </c>
-      <c r="C2">
-        <v>-110.64</v>
-      </c>
-      <c r="D2">
-        <v>-189.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-69.36</v>
-      </c>
-      <c r="C3">
-        <v>-155.21</v>
-      </c>
-      <c r="D3">
-        <v>-90.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-79.73999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-44.15</v>
-      </c>
-      <c r="D4">
-        <v>-156.58</v>
+        <v>14.11</v>
+      </c>
+      <c r="C2">
+        <v>8.48</v>
+      </c>
+      <c r="D2">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5.28</v>
+      </c>
+      <c r="C3">
+        <v>6.98</v>
+      </c>
+      <c r="D3">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7.66</v>
+      </c>
+      <c r="C4">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D4">
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
@@ -2079,41 +2079,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-108.04</v>
-      </c>
-      <c r="C2">
-        <v>-160.1</v>
-      </c>
-      <c r="D2">
-        <v>-171.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-109.06</v>
-      </c>
-      <c r="C3">
-        <v>-181.78</v>
-      </c>
-      <c r="D3">
-        <v>-99.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-96.81999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-199.49</v>
-      </c>
-      <c r="D4">
-        <v>-130.86</v>
+        <v>11.56</v>
+      </c>
+      <c r="C2">
+        <v>-57.13</v>
+      </c>
+      <c r="D2">
+        <v>-191.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-56.44</v>
+      </c>
+      <c r="C3">
+        <v>-16.9</v>
+      </c>
+      <c r="D3">
+        <v>-94.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-120.3</v>
+      </c>
+      <c r="C4">
+        <v>-57.3</v>
+      </c>
+      <c r="D4">
+        <v>-34.57</v>
       </c>
     </row>
   </sheetData>
